--- a/biology/Botanique/Carex_strigosa/Carex_strigosa.xlsx
+++ b/biology/Botanique/Carex_strigosa/Carex_strigosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laîche maigre
 Carex strigosa, la Laîche maigre, est une espèce de plantes herbacées de la famille des Cyperaceae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce présente des cellules diploïdes de 2n=66 chromosomes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce présente des cellules diploïdes de 2n=66 chromosomes.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Carex strigosa Huds.[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Laiche maigre[2],[3], Laîche maigre[2],[4],[3], Carex maigre[4], Laiche à épis grêles[3], Laîche à épis grêles[3], Laiche à poils raides[3], Laîche à poils raides[3].
-Carex strigosa a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Carex strigosa Huds..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Laiche maigre Laîche maigre Carex maigre, Laiche à épis grêles, Laîche à épis grêles, Laiche à poils raides, Laîche à poils raides.
+Carex strigosa a pour synonymes :
 Carex godefrinii Willemet
 Carex leptostachya Boiss.
 Carex leptostachys Ehrh.
